--- a/Thesis_project/01_data-input/Eurostat/demo_r_mlifexp.xlsx
+++ b/Thesis_project/01_data-input/Eurostat/demo_r_mlifexp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\Eurostat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\Eurostat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD11CE68-2169-4FE4-B736-08DB52CE99FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E663D0-A8DD-44F0-B991-1661EC1DF205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16800" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16800" uniqueCount="833">
   <si>
     <t>Life expectancy by age, sex and NUTS 2 region [demo_r_mlifexp__custom_11919180]</t>
   </si>
@@ -2533,6 +2533,9 @@
   <si>
     <t>South Western Scotland (NUTS 2013)</t>
   </si>
+  <si>
+    <t>AL00</t>
+  </si>
 </sst>
 </file>
 
@@ -2543,7 +2546,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.#########"/>
     <numFmt numFmtId="167" formatCode="#,##0.#"/>
-    <numFmt numFmtId="174" formatCode="#,##0.##"/>
+    <numFmt numFmtId="168" formatCode="#,##0.##"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -2732,17 +2735,7 @@
     <xf numFmtId="165" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2755,6 +2748,16 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3168,22 +3171,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -8663,190 +8666,190 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="J10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="29" t="s">
+      <c r="L10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="N10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="29" t="s">
+      <c r="N10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="P10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="29" t="s">
+      <c r="P10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="R10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="29" t="s">
+      <c r="R10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="T10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="29" t="s">
+      <c r="T10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="V10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="W10" s="29" t="s">
+      <c r="V10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="X10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y10" s="29" t="s">
+      <c r="X10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="Z10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA10" s="29" t="s">
+      <c r="Z10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA10" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="AB10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="29" t="s">
+      <c r="AB10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC10" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="AD10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE10" s="29" t="s">
+      <c r="AD10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE10" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="AF10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG10" s="29" t="s">
+      <c r="AF10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG10" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="AH10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI10" s="29" t="s">
+      <c r="AH10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="AJ10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK10" s="29" t="s">
+      <c r="AJ10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK10" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="AL10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM10" s="29" t="s">
+      <c r="AL10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM10" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="AN10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO10" s="29" t="s">
+      <c r="AN10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO10" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="AP10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ10" s="29" t="s">
+      <c r="AP10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ10" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="AR10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS10" s="29" t="s">
+      <c r="AR10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS10" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="AT10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU10" s="29" t="s">
+      <c r="AT10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU10" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="AV10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW10" s="29" t="s">
+      <c r="AV10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW10" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="AX10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY10" s="29" t="s">
+      <c r="AX10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY10" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="AZ10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA10" s="29" t="s">
+      <c r="AZ10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA10" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="BB10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC10" s="29" t="s">
+      <c r="BB10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC10" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="BD10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="BE10" s="29" t="s">
+      <c r="BD10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE10" s="33" t="s">
         <v>752</v>
       </c>
-      <c r="BF10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG10" s="29" t="s">
+      <c r="BF10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG10" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="BH10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI10" s="29" t="s">
+      <c r="BH10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI10" s="33" t="s">
         <v>754</v>
       </c>
-      <c r="BJ10" s="29" t="s">
+      <c r="BJ10" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -72806,37 +72809,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AW10:AX10"/>
     <mergeCell ref="BI10:BJ10"/>
     <mergeCell ref="AY10:AZ10"/>
     <mergeCell ref="BA10:BB10"/>
     <mergeCell ref="BC10:BD10"/>
     <mergeCell ref="BE10:BF10"/>
     <mergeCell ref="BG10:BH10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -72847,10 +72850,10 @@
   <dimension ref="A1:V319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W263" sqref="W263"/>
+      <selection pane="bottomRight" activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -86456,37 +86459,37 @@
       <c r="D200" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="E200" s="34">
+      <c r="E200" s="30">
         <v>73.099999999999994</v>
       </c>
-      <c r="F200" s="34">
+      <c r="F200" s="30">
         <v>73.5</v>
       </c>
-      <c r="G200" s="34">
+      <c r="G200" s="30">
         <v>73.8</v>
       </c>
-      <c r="H200" s="34">
+      <c r="H200" s="30">
         <v>73.400000000000006</v>
       </c>
-      <c r="I200" s="34">
+      <c r="I200" s="30">
         <v>73.5</v>
       </c>
-      <c r="J200" s="34">
+      <c r="J200" s="30">
         <v>73.599999999999994</v>
       </c>
-      <c r="K200" s="34">
+      <c r="K200" s="30">
         <v>74</v>
       </c>
-      <c r="L200" s="34">
+      <c r="L200" s="30">
         <v>74.099999999999994</v>
       </c>
-      <c r="M200" s="34">
+      <c r="M200" s="30">
         <v>74.8</v>
       </c>
-      <c r="N200" s="34">
+      <c r="N200" s="30">
         <v>75.099999999999994</v>
       </c>
-      <c r="O200" s="34">
+      <c r="O200" s="30">
         <v>75.2</v>
       </c>
       <c r="P200" s="15">
@@ -86524,37 +86527,37 @@
       <c r="D201" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="E201" s="34">
+      <c r="E201" s="30">
         <v>74.7</v>
       </c>
-      <c r="F201" s="34">
+      <c r="F201" s="30">
         <v>74.8</v>
       </c>
-      <c r="G201" s="34">
+      <c r="G201" s="30">
         <v>75.3</v>
       </c>
-      <c r="H201" s="34">
+      <c r="H201" s="30">
         <v>75.2</v>
       </c>
-      <c r="I201" s="34">
+      <c r="I201" s="30">
         <v>75.400000000000006</v>
       </c>
-      <c r="J201" s="34">
+      <c r="J201" s="30">
         <v>75.599999999999994</v>
       </c>
-      <c r="K201" s="34">
+      <c r="K201" s="30">
         <v>75.7</v>
       </c>
-      <c r="L201" s="34">
+      <c r="L201" s="30">
         <v>76.3</v>
       </c>
-      <c r="M201" s="34">
+      <c r="M201" s="30">
         <v>76.2</v>
       </c>
-      <c r="N201" s="34">
+      <c r="N201" s="30">
         <v>76.7</v>
       </c>
-      <c r="O201" s="34">
+      <c r="O201" s="30">
         <v>77.099999999999994</v>
       </c>
       <c r="P201" s="14">
@@ -86592,37 +86595,37 @@
       <c r="D202" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="E202" s="34">
+      <c r="E202" s="30">
         <v>74.099999999999994</v>
       </c>
-      <c r="F202" s="34">
+      <c r="F202" s="30">
         <v>74</v>
       </c>
-      <c r="G202" s="34">
+      <c r="G202" s="30">
         <v>74.5</v>
       </c>
-      <c r="H202" s="34">
+      <c r="H202" s="30">
         <v>74.599999999999994</v>
       </c>
-      <c r="I202" s="34">
+      <c r="I202" s="30">
         <v>74.7</v>
       </c>
-      <c r="J202" s="34">
+      <c r="J202" s="30">
         <v>74.7</v>
       </c>
-      <c r="K202" s="34">
+      <c r="K202" s="30">
         <v>75</v>
       </c>
-      <c r="L202" s="34">
+      <c r="L202" s="30">
         <v>75.2</v>
       </c>
-      <c r="M202" s="34">
+      <c r="M202" s="30">
         <v>76.099999999999994</v>
       </c>
-      <c r="N202" s="34">
+      <c r="N202" s="30">
         <v>76</v>
       </c>
-      <c r="O202" s="34">
+      <c r="O202" s="30">
         <v>76.5</v>
       </c>
       <c r="P202" s="15">
@@ -86660,37 +86663,37 @@
       <c r="D203" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="E203" s="34">
+      <c r="E203" s="30">
         <v>75.599999999999994</v>
       </c>
-      <c r="F203" s="34">
+      <c r="F203" s="30">
         <v>75.7</v>
       </c>
-      <c r="G203" s="34">
+      <c r="G203" s="30">
         <v>75.8</v>
       </c>
-      <c r="H203" s="34">
+      <c r="H203" s="30">
         <v>76</v>
       </c>
-      <c r="I203" s="34">
+      <c r="I203" s="30">
         <v>76.7</v>
       </c>
-      <c r="J203" s="34">
+      <c r="J203" s="30">
         <v>77</v>
       </c>
-      <c r="K203" s="34">
+      <c r="K203" s="30">
         <v>77.099999999999994</v>
       </c>
-      <c r="L203" s="34">
+      <c r="L203" s="30">
         <v>77.2</v>
       </c>
-      <c r="M203" s="34">
+      <c r="M203" s="30">
         <v>77.900000000000006</v>
       </c>
-      <c r="N203" s="34">
+      <c r="N203" s="30">
         <v>78.3</v>
       </c>
-      <c r="O203" s="34">
+      <c r="O203" s="30">
         <v>78.400000000000006</v>
       </c>
       <c r="P203" s="14">
@@ -86728,37 +86731,37 @@
       <c r="D204" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="E204" s="34">
+      <c r="E204" s="30">
         <v>75.3</v>
       </c>
-      <c r="F204" s="34">
+      <c r="F204" s="30">
         <v>75.099999999999994</v>
       </c>
-      <c r="G204" s="34">
+      <c r="G204" s="30">
         <v>75.3</v>
       </c>
-      <c r="H204" s="34">
+      <c r="H204" s="30">
         <v>75.5</v>
       </c>
-      <c r="I204" s="34">
+      <c r="I204" s="30">
         <v>75.7</v>
       </c>
-      <c r="J204" s="34">
+      <c r="J204" s="30">
         <v>76.099999999999994</v>
       </c>
-      <c r="K204" s="34">
+      <c r="K204" s="30">
         <v>76.7</v>
       </c>
-      <c r="L204" s="34">
+      <c r="L204" s="30">
         <v>76.599999999999994</v>
       </c>
-      <c r="M204" s="34">
+      <c r="M204" s="30">
         <v>77.3</v>
       </c>
-      <c r="N204" s="34">
+      <c r="N204" s="30">
         <v>77.8</v>
       </c>
-      <c r="O204" s="34">
+      <c r="O204" s="30">
         <v>77.900000000000006</v>
       </c>
       <c r="P204" s="15">
@@ -90241,10 +90244,10 @@
       <c r="S255" s="15">
         <v>80.2</v>
       </c>
-      <c r="T255" s="31">
+      <c r="T255" s="27">
         <v>80.3</v>
       </c>
-      <c r="U255" s="31">
+      <c r="U255" s="27">
         <v>80.2</v>
       </c>
       <c r="V255" s="8" t="s">
@@ -90309,10 +90312,10 @@
       <c r="S256" s="14">
         <v>82.3</v>
       </c>
-      <c r="T256" s="32">
+      <c r="T256" s="28">
         <v>82.4</v>
       </c>
-      <c r="U256" s="32">
+      <c r="U256" s="28">
         <v>82.3</v>
       </c>
       <c r="V256" s="7" t="s">
@@ -90377,10 +90380,10 @@
       <c r="S257" s="15">
         <v>82.6</v>
       </c>
-      <c r="T257" s="31">
+      <c r="T257" s="27">
         <v>82.5</v>
       </c>
-      <c r="U257" s="31">
+      <c r="U257" s="27">
         <v>82.3</v>
       </c>
       <c r="V257" s="8" t="s">
@@ -90445,10 +90448,10 @@
       <c r="S258" s="14">
         <v>81.7</v>
       </c>
-      <c r="T258" s="32">
+      <c r="T258" s="28">
         <v>81.7</v>
       </c>
-      <c r="U258" s="32">
+      <c r="U258" s="28">
         <v>81.8</v>
       </c>
       <c r="V258" s="7" t="s">
@@ -90473,7 +90476,7 @@
         <v>78.55</v>
       </c>
       <c r="F259" s="25">
-        <f t="shared" ref="E259:O259" si="4">(F261+F262)/2</f>
+        <f t="shared" ref="F259:O259" si="4">(F261+F262)/2</f>
         <v>78.55</v>
       </c>
       <c r="G259" s="25">
@@ -90638,37 +90641,37 @@
       <c r="D261" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="E261" s="33">
+      <c r="E261" s="29">
         <v>79.459999999999994</v>
       </c>
-      <c r="F261" s="33">
+      <c r="F261" s="29">
         <v>79.459999999999994</v>
       </c>
-      <c r="G261" s="33">
+      <c r="G261" s="29">
         <v>80.27</v>
       </c>
-      <c r="H261" s="33">
+      <c r="H261" s="29">
         <v>80.569999999999993</v>
       </c>
-      <c r="I261" s="33">
+      <c r="I261" s="29">
         <v>80.98</v>
       </c>
-      <c r="J261" s="33">
+      <c r="J261" s="29">
         <v>81.38</v>
       </c>
-      <c r="K261" s="33">
+      <c r="K261" s="29">
         <v>81.48</v>
       </c>
-      <c r="L261" s="33">
+      <c r="L261" s="29">
         <v>82.09</v>
       </c>
-      <c r="M261" s="33">
+      <c r="M261" s="29">
         <v>82.29</v>
       </c>
-      <c r="N261" s="33">
+      <c r="N261" s="29">
         <v>83</v>
       </c>
-      <c r="O261" s="33">
+      <c r="O261" s="29">
         <v>82.9</v>
       </c>
       <c r="P261" s="15">
@@ -90683,10 +90686,10 @@
       <c r="S261" s="15">
         <v>84.3</v>
       </c>
-      <c r="T261" s="31">
+      <c r="T261" s="27">
         <v>83.9</v>
       </c>
-      <c r="U261" s="31">
+      <c r="U261" s="27">
         <v>84.7</v>
       </c>
       <c r="V261" s="8" t="s">
@@ -90706,37 +90709,37 @@
       <c r="D262" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="E262" s="33">
+      <c r="E262" s="29">
         <v>77.64</v>
       </c>
-      <c r="F262" s="33">
+      <c r="F262" s="29">
         <v>77.64</v>
       </c>
-      <c r="G262" s="33">
+      <c r="G262" s="29">
         <v>78.44</v>
       </c>
-      <c r="H262" s="33">
+      <c r="H262" s="29">
         <v>78.73</v>
       </c>
-      <c r="I262" s="33">
+      <c r="I262" s="29">
         <v>79.13</v>
       </c>
-      <c r="J262" s="33">
+      <c r="J262" s="29">
         <v>79.52</v>
       </c>
-      <c r="K262" s="33">
+      <c r="K262" s="29">
         <v>79.62</v>
       </c>
-      <c r="L262" s="33">
+      <c r="L262" s="29">
         <v>80.209999999999994</v>
       </c>
-      <c r="M262" s="33">
+      <c r="M262" s="29">
         <v>80.41</v>
       </c>
-      <c r="N262" s="33">
+      <c r="N262" s="29">
         <v>81.099999999999994</v>
       </c>
-      <c r="O262" s="33">
+      <c r="O262" s="29">
         <v>81</v>
       </c>
       <c r="P262" s="14">
@@ -90751,10 +90754,10 @@
       <c r="S262" s="14">
         <v>82.1</v>
       </c>
-      <c r="T262" s="32">
+      <c r="T262" s="28">
         <v>81.900000000000006</v>
       </c>
-      <c r="U262" s="30">
+      <c r="U262" s="26">
         <v>82</v>
       </c>
       <c r="V262" s="7" t="s">
@@ -90774,37 +90777,37 @@
       <c r="D263" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="E263" s="33">
+      <c r="E263" s="29">
         <v>78.22</v>
       </c>
-      <c r="F263" s="33">
+      <c r="F263" s="29">
         <v>78.22</v>
       </c>
-      <c r="G263" s="33">
+      <c r="G263" s="29">
         <v>79.010000000000005</v>
       </c>
-      <c r="H263" s="33">
+      <c r="H263" s="29">
         <v>79.31</v>
       </c>
-      <c r="I263" s="33">
+      <c r="I263" s="29">
         <v>79.709999999999994</v>
       </c>
-      <c r="J263" s="33">
+      <c r="J263" s="29">
         <v>80.11</v>
       </c>
-      <c r="K263" s="33">
+      <c r="K263" s="29">
         <v>80.209999999999994</v>
       </c>
-      <c r="L263" s="33">
+      <c r="L263" s="29">
         <v>80.81</v>
       </c>
-      <c r="M263" s="33">
+      <c r="M263" s="29">
         <v>81</v>
       </c>
-      <c r="N263" s="33">
+      <c r="N263" s="29">
         <v>81.7</v>
       </c>
-      <c r="O263" s="33">
+      <c r="O263" s="29">
         <v>81.599999999999994</v>
       </c>
       <c r="P263" s="15">
@@ -90819,10 +90822,10 @@
       <c r="S263" s="15">
         <v>82.2</v>
       </c>
-      <c r="T263" s="31">
+      <c r="T263" s="27">
         <v>82.3</v>
       </c>
-      <c r="U263" s="31">
+      <c r="U263" s="27">
         <v>82.4</v>
       </c>
       <c r="V263" s="8" t="s">
@@ -90842,37 +90845,37 @@
       <c r="D264" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="E264" s="33">
+      <c r="E264" s="29">
         <v>79.08</v>
       </c>
-      <c r="F264" s="33">
+      <c r="F264" s="29">
         <v>79.08</v>
       </c>
-      <c r="G264" s="33">
+      <c r="G264" s="29">
         <v>79.88</v>
       </c>
-      <c r="H264" s="33">
+      <c r="H264" s="29">
         <v>80.180000000000007</v>
       </c>
-      <c r="I264" s="33">
+      <c r="I264" s="29">
         <v>80.59</v>
       </c>
-      <c r="J264" s="33">
+      <c r="J264" s="29">
         <v>80.989999999999995</v>
       </c>
-      <c r="K264" s="33">
+      <c r="K264" s="29">
         <v>81.09</v>
       </c>
-      <c r="L264" s="33">
+      <c r="L264" s="29">
         <v>81.69</v>
       </c>
-      <c r="M264" s="33">
+      <c r="M264" s="29">
         <v>81.89</v>
       </c>
-      <c r="N264" s="33">
+      <c r="N264" s="29">
         <v>82.6</v>
       </c>
-      <c r="O264" s="33">
+      <c r="O264" s="29">
         <v>82.5</v>
       </c>
       <c r="P264" s="14">
@@ -90887,10 +90890,10 @@
       <c r="S264" s="14">
         <v>82.8</v>
       </c>
-      <c r="T264" s="32">
+      <c r="T264" s="28">
         <v>83.1</v>
       </c>
-      <c r="U264" s="32">
+      <c r="U264" s="28">
         <v>82.7</v>
       </c>
       <c r="V264" s="7" t="s">
@@ -90910,37 +90913,37 @@
       <c r="D265" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="E265" s="33">
+      <c r="E265" s="29">
         <v>79.27</v>
       </c>
-      <c r="F265" s="33">
+      <c r="F265" s="29">
         <v>79.27</v>
       </c>
-      <c r="G265" s="33">
+      <c r="G265" s="29">
         <v>80.08</v>
       </c>
-      <c r="H265" s="33">
+      <c r="H265" s="29">
         <v>80.38</v>
       </c>
-      <c r="I265" s="33">
+      <c r="I265" s="29">
         <v>80.78</v>
       </c>
-      <c r="J265" s="33">
+      <c r="J265" s="29">
         <v>81.180000000000007</v>
       </c>
-      <c r="K265" s="33">
+      <c r="K265" s="29">
         <v>81.290000000000006</v>
       </c>
-      <c r="L265" s="33">
+      <c r="L265" s="29">
         <v>81.89</v>
       </c>
-      <c r="M265" s="33">
+      <c r="M265" s="29">
         <v>82.09</v>
       </c>
-      <c r="N265" s="33">
+      <c r="N265" s="29">
         <v>82.8</v>
       </c>
-      <c r="O265" s="33">
+      <c r="O265" s="29">
         <v>82.7</v>
       </c>
       <c r="P265" s="19">
@@ -90955,10 +90958,10 @@
       <c r="S265" s="15">
         <v>83.5</v>
       </c>
-      <c r="T265" s="31">
+      <c r="T265" s="27">
         <v>83.7</v>
       </c>
-      <c r="U265" s="31">
+      <c r="U265" s="27">
         <v>83.4</v>
       </c>
       <c r="V265" s="8" t="s">
@@ -91660,49 +91663,49 @@
         <f t="shared" ref="D276:V277" si="8">D280</f>
         <v>:</v>
       </c>
-      <c r="E276" s="33">
+      <c r="E276" s="29">
         <v>77</v>
       </c>
-      <c r="F276" s="33">
+      <c r="F276" s="29">
         <v>77.400000000000006</v>
       </c>
-      <c r="G276" s="33">
+      <c r="G276" s="29">
         <v>77.900000000000006</v>
       </c>
-      <c r="H276" s="33">
+      <c r="H276" s="29">
         <v>77.900000000000006</v>
       </c>
-      <c r="I276" s="33">
+      <c r="I276" s="29">
         <v>78.5</v>
       </c>
-      <c r="J276" s="33">
+      <c r="J276" s="29">
         <v>78.599999999999994</v>
       </c>
-      <c r="K276" s="33">
+      <c r="K276" s="29">
         <v>78.7</v>
       </c>
-      <c r="L276" s="33">
+      <c r="L276" s="29">
         <v>79.099999999999994</v>
       </c>
-      <c r="M276" s="33">
+      <c r="M276" s="29">
         <v>79.5</v>
       </c>
-      <c r="N276" s="33">
+      <c r="N276" s="29">
         <v>79.7</v>
       </c>
-      <c r="O276" s="33">
+      <c r="O276" s="29">
         <v>79.599999999999994</v>
       </c>
-      <c r="P276" s="33">
+      <c r="P276" s="29">
         <v>80</v>
       </c>
-      <c r="Q276" s="33">
+      <c r="Q276" s="29">
         <v>80.400000000000006</v>
       </c>
-      <c r="R276" s="33">
+      <c r="R276" s="29">
         <v>79.8</v>
       </c>
-      <c r="S276" s="33">
+      <c r="S276" s="29">
         <v>79.8</v>
       </c>
       <c r="T276" s="25">
@@ -91733,49 +91736,49 @@
         <f t="shared" si="8"/>
         <v>:</v>
       </c>
-      <c r="E277" s="33">
+      <c r="E277" s="29">
         <v>75.3</v>
       </c>
-      <c r="F277" s="33">
+      <c r="F277" s="29">
         <v>75.3</v>
       </c>
-      <c r="G277" s="33">
+      <c r="G277" s="29">
         <v>75.900000000000006</v>
       </c>
-      <c r="H277" s="33">
+      <c r="H277" s="29">
         <v>76.400000000000006</v>
       </c>
-      <c r="I277" s="33">
+      <c r="I277" s="29">
         <v>76.5</v>
       </c>
-      <c r="J277" s="33">
+      <c r="J277" s="29">
         <v>76.3</v>
       </c>
-      <c r="K277" s="33">
+      <c r="K277" s="29">
         <v>76.7</v>
       </c>
-      <c r="L277" s="33">
+      <c r="L277" s="29">
         <v>77.5</v>
       </c>
-      <c r="M277" s="33">
+      <c r="M277" s="29">
         <v>77.7</v>
       </c>
-      <c r="N277" s="33">
+      <c r="N277" s="29">
         <v>78</v>
       </c>
-      <c r="O277" s="33">
+      <c r="O277" s="29">
         <v>78.099999999999994</v>
       </c>
-      <c r="P277" s="33">
+      <c r="P277" s="29">
         <v>78.3</v>
       </c>
-      <c r="Q277" s="33">
+      <c r="Q277" s="29">
         <v>78.599999999999994</v>
       </c>
-      <c r="R277" s="33">
+      <c r="R277" s="29">
         <v>78.3</v>
       </c>
-      <c r="S277" s="33">
+      <c r="S277" s="29">
         <v>78.3</v>
       </c>
       <c r="T277" s="25">
@@ -92336,7 +92339,7 @@
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>655</v>
+        <v>832</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>656</v>
